--- a/杂项.Hollysys/附件1：-关于职称评定条件相关说明.xlsx
+++ b/杂项.Hollysys/附件1：-关于职称评定条件相关说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>备注</t>
   </si>
@@ -112,7 +112,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中专毕业工作满3年进行连续（近）2年参加继续教育；大专毕业工作满2年进行连续（近）2年参加继续教育；统招本科工作满1年，且完成近1年的继续教育（认定方式必须是统招学历且只能认定所学专业，否则只能评审方式进行）</t>
+    <t>大中专</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中专毕业工作满3年进行连续（近）2年参加继续教育；大专毕业工作满2年进行连续（近）2年参加继续教育；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统招本科工作满1年，且完成近1年的继续教育（认定方式必须是统招学历且只能认定所学专业，否则只能评审方式进行）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -237,7 +245,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">元。、认定不收费
+      <t xml:space="preserve">元。认定不收费
 </t>
     </r>
     <r>
@@ -324,7 +332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +411,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -419,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -481,11 +498,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -496,9 +526,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -506,6 +533,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -517,6 +547,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -907,77 +955,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -988,17 +1045,22 @@
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>